--- a/content/30-weekly-sheets/dfw-week3.xlsx
+++ b/content/30-weekly-sheets/dfw-week3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofia\Code\hap\hap-dwf-docs\content\30-weekly-sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259243BA-C8D4-4A08-9B5C-E2F70AFD810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C772005C-239F-439F-9C65-AF51524771FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Task Sheet" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>Weekly Tasks</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Dev Weekends Fellowship Week 3</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>WTW Timetable PERN Application</t>
+  </si>
+  <si>
+    <t>Finalized backend and implemented core API routes for Timetable, Schedule, and Archive tables.</t>
+  </si>
+  <si>
+    <t>LEETCODE</t>
+  </si>
+  <si>
+    <t>LeetCode Sliding Window Prep</t>
+  </si>
+  <si>
+    <t>Complete 10-15 Sliding Window Questions from LeetCode (Fixed, Variable)</t>
+  </si>
   <si>
     <r>
-      <t xml:space="preserve">It can be anything like if you are working on a project or learning from a youtube video then just mention the category like </t>
+      <t xml:space="preserve">Finished implementation for the core API routes, that don’t include creating an image to export (as jpg, png, jpeg, etc.) and implemented a modular monolithic archiecture for the server directories. 
+</t>
     </r>
     <r>
       <rPr>
@@ -38,7 +81,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>“Project”</t>
+      <t>NOTE</t>
     </r>
     <r>
       <rPr>
@@ -47,7 +90,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> or </t>
+      <t>: Spent more time working on the Timetable application since this is something I really enjoyed and also got my coding buddy involved in.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Completed 5 sliding window (2 fixed length, 3 variable length) LeetCode questions. 
+</t>
     </r>
     <r>
       <rPr>
@@ -57,7 +106,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>“Learning”</t>
+      <t xml:space="preserve">NOTE: </t>
     </r>
     <r>
       <rPr>
@@ -66,12 +115,19 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> to give us a quick idea</t>
+      <t>Spent less time working on this due to being at vacation currently and spending more time with family. However planning to improve my level of commitment to LeetCode gradually.</t>
     </r>
   </si>
   <si>
+    <t>LeetCode Binary Search Prep</t>
+  </si>
+  <si>
+    <t>Complete 1 Binary Search Question from LeetCode</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Project Name i.e. </t>
+      <t xml:space="preserve">Completed a single binary search question from LeetCode. 
+</t>
     </r>
     <r>
       <rPr>
@@ -81,7 +137,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Multi-vendor E-commerce</t>
+      <t xml:space="preserve">NOTE: </t>
     </r>
     <r>
       <rPr>
@@ -90,75 +146,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> or Learning or following video title i.e. </t>
+      <t>This was more for building up my knowledge about data structures and algorithms again after not having done anything like that for over a year. This was a good refresher but definitely need to improve my abilities.</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Javascript - Chai or Code </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A short title that captures the core of what you’re working on. i.e. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>State Management Integration with Redux Toolkit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A few lines explaining what you did, what you're analyzing or building, and any key outcomes or steps taken. i.e. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Reviewed the application flow to identify components requiring global state management. Refactored local state logic and integrated Redux Toolkit for cleaner and more scalable state handling. Set up Redux slices for authentication and user preferences, and configured middleware for async operations using createAsyncThunk.</t>
-    </r>
-  </si>
-  <si>
-    <t>Weekly Tasks</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>X Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Dev Weekends Fellowship Week 3</t>
+  </si>
+  <si>
+    <t>~1 Hr(s)</t>
+  </si>
+  <si>
+    <t>~3 Hr(s)</t>
+  </si>
+  <si>
+    <t>10 Hr(s)</t>
   </si>
 </sst>
 </file>
@@ -249,6 +247,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -257,12 +261,6 @@
     </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,260 +542,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:K4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5">
+        <v>45840</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5">
+        <v>45842</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3">
-        <v>45822</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5">
+        <v>45842</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="26">
+    <mergeCell ref="K28:K37"/>
+    <mergeCell ref="A28:B37"/>
+    <mergeCell ref="C28:D37"/>
+    <mergeCell ref="E28:F37"/>
+    <mergeCell ref="G28:I37"/>
+    <mergeCell ref="J28:J37"/>
+    <mergeCell ref="K8:K17"/>
+    <mergeCell ref="A18:B27"/>
+    <mergeCell ref="C18:D27"/>
+    <mergeCell ref="E18:F27"/>
+    <mergeCell ref="G18:I27"/>
+    <mergeCell ref="J18:J27"/>
+    <mergeCell ref="K18:K27"/>
+    <mergeCell ref="A8:B17"/>
+    <mergeCell ref="C8:D17"/>
+    <mergeCell ref="E8:F17"/>
+    <mergeCell ref="G8:I17"/>
+    <mergeCell ref="J8:J17"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:K4"/>
     <mergeCell ref="A6:B7"/>
@@ -806,13 +1107,8 @@
     <mergeCell ref="G6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A8:B17"/>
-    <mergeCell ref="C8:D17"/>
-    <mergeCell ref="E8:F17"/>
-    <mergeCell ref="G8:I17"/>
-    <mergeCell ref="J8:J17"/>
-    <mergeCell ref="K8:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>